--- a/data/surge/surgeData053.xlsx
+++ b/data/surge/surgeData053.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/NAR/CH4_053_Morris_Reservoir/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="8_{91BC1852-EBE2-436A-8D5A-5F490CC866AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F46C08B-FCE2-41C4-A497-EB092C58B4F0}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="8_{91BC1852-EBE2-436A-8D5A-5F490CC866AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B92F7B5-BE5E-4D74-9091-AFB1635B9160}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1661,77 +1661,77 @@
   <dimension ref="A1:BZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF22" sqref="BF22"/>
+      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.453125" customWidth="1"/>
-    <col min="30" max="30" width="10.453125" customWidth="1"/>
-    <col min="31" max="31" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.44140625" customWidth="1"/>
+    <col min="30" max="30" width="10.44140625" customWidth="1"/>
+    <col min="31" max="31" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.453125" customWidth="1"/>
-    <col min="51" max="51" width="8.453125" customWidth="1"/>
-    <col min="52" max="52" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.453125" customWidth="1"/>
-    <col min="65" max="65" width="14.81640625" customWidth="1"/>
-    <col min="66" max="66" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.44140625" customWidth="1"/>
+    <col min="51" max="51" width="8.44140625" customWidth="1"/>
+    <col min="52" max="52" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.44140625" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" customWidth="1"/>
+    <col min="66" max="66" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -2106,52 +2106,52 @@
         <v>10</v>
       </c>
       <c r="AB3">
-        <v>5.17</v>
+        <v>0.1</v>
       </c>
       <c r="AC3">
         <v>24</v>
       </c>
       <c r="AD3">
-        <v>8.5299999999999994</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AE3">
-        <v>95.4</v>
+        <v>94.4</v>
       </c>
       <c r="AF3">
-        <v>7.79</v>
+        <v>7.75</v>
       </c>
       <c r="AG3">
-        <v>4.67</v>
+        <v>2.83</v>
       </c>
       <c r="AH3">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="AI3">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="AX3">
-        <v>0.1</v>
+        <v>5.17</v>
       </c>
       <c r="AY3">
         <v>24</v>
       </c>
       <c r="AZ3">
-        <v>8.6999999999999993</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="BA3">
-        <v>94.4</v>
+        <v>95.4</v>
       </c>
       <c r="BB3">
-        <v>7.75</v>
+        <v>7.79</v>
       </c>
       <c r="BC3">
-        <v>2.83</v>
+        <v>4.67</v>
       </c>
       <c r="BD3">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="BE3">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="BT3" t="s">
         <v>204</v>
@@ -2175,7 +2175,7 @@
         <v>0.7402777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>198</v>
       </c>
       <c r="D4" s="30">
-        <v>41.067672000000002</v>
+        <v>41.676720000000003</v>
       </c>
       <c r="E4">
         <v>73.146082000000007</v>
@@ -2222,55 +2222,55 @@
         <v>19.8</v>
       </c>
       <c r="AB4">
+        <v>0.1</v>
+      </c>
+      <c r="AC4">
+        <v>24.1</v>
+      </c>
+      <c r="AD4">
+        <v>8.64</v>
+      </c>
+      <c r="AE4">
+        <v>95.4</v>
+      </c>
+      <c r="AF4">
+        <v>7.81</v>
+      </c>
+      <c r="AG4">
+        <v>1.79</v>
+      </c>
+      <c r="AH4">
+        <v>-0.1</v>
+      </c>
+      <c r="AI4">
+        <v>-0.13</v>
+      </c>
+      <c r="AX4">
         <v>18</v>
       </c>
-      <c r="AC4">
+      <c r="AY4">
         <v>6.17</v>
       </c>
-      <c r="AD4">
+      <c r="AZ4">
         <v>2.93</v>
       </c>
-      <c r="AE4">
+      <c r="BA4">
         <v>111.6</v>
       </c>
-      <c r="AF4">
+      <c r="BB4">
         <v>6.6</v>
       </c>
-      <c r="AG4">
+      <c r="BC4">
         <v>0.81</v>
       </c>
-      <c r="AH4">
+      <c r="BD4">
         <v>0.38</v>
       </c>
-      <c r="AI4">
+      <c r="BE4">
         <v>34.1</v>
       </c>
-      <c r="AX4">
-        <v>0.1</v>
-      </c>
-      <c r="AY4">
-        <v>24.1</v>
-      </c>
-      <c r="AZ4">
-        <v>8.64</v>
-      </c>
-      <c r="BA4">
-        <v>95.4</v>
-      </c>
-      <c r="BB4">
-        <v>7.81</v>
-      </c>
-      <c r="BC4">
-        <v>1.79</v>
-      </c>
-      <c r="BD4">
-        <v>-0.1</v>
-      </c>
-      <c r="BE4">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -2317,55 +2317,55 @@
         <v>11</v>
       </c>
       <c r="AB5">
+        <v>0.1</v>
+      </c>
+      <c r="AC5">
+        <v>24.1</v>
+      </c>
+      <c r="AD5">
+        <v>8.73</v>
+      </c>
+      <c r="AE5">
+        <v>95.5</v>
+      </c>
+      <c r="AF5">
+        <v>7.79</v>
+      </c>
+      <c r="AG5">
+        <v>1.83</v>
+      </c>
+      <c r="AH5">
+        <v>-0.01</v>
+      </c>
+      <c r="AI5">
+        <v>-0.17</v>
+      </c>
+      <c r="AX5">
         <v>10.09</v>
       </c>
-      <c r="AC5">
+      <c r="AY5">
         <v>9.1</v>
       </c>
-      <c r="AD5">
+      <c r="AZ5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="AE5">
+      <c r="BA5">
         <v>108.2</v>
       </c>
-      <c r="AF5">
+      <c r="BB5">
         <v>6.64</v>
       </c>
-      <c r="AG5">
+      <c r="BC5">
         <v>-0.01</v>
       </c>
-      <c r="AH5">
+      <c r="BD5">
         <v>-0.06</v>
       </c>
-      <c r="AI5">
+      <c r="BE5">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AX5">
-        <v>0.1</v>
-      </c>
-      <c r="AY5">
-        <v>24.1</v>
-      </c>
-      <c r="AZ5">
-        <v>8.73</v>
-      </c>
-      <c r="BA5">
-        <v>95.5</v>
-      </c>
-      <c r="BB5">
-        <v>7.79</v>
-      </c>
-      <c r="BC5">
-        <v>1.83</v>
-      </c>
-      <c r="BD5">
-        <v>-0.01</v>
-      </c>
-      <c r="BE5">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -2412,55 +2412,55 @@
         <v>15</v>
       </c>
       <c r="AB6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6">
+        <v>24.1</v>
+      </c>
+      <c r="AD6">
+        <v>8.59</v>
+      </c>
+      <c r="AE6">
+        <v>95.4</v>
+      </c>
+      <c r="AF6">
+        <v>7.68</v>
+      </c>
+      <c r="AG6">
+        <v>1.94</v>
+      </c>
+      <c r="AH6">
+        <v>-0.03</v>
+      </c>
+      <c r="AI6">
+        <v>-0.13</v>
+      </c>
+      <c r="AX6">
         <v>14.1</v>
       </c>
-      <c r="AC6">
+      <c r="AY6">
         <v>6.71</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>5.65</v>
       </c>
-      <c r="AE6">
+      <c r="BA6">
         <v>109.7</v>
       </c>
-      <c r="AF6">
+      <c r="BB6">
         <v>6.87</v>
       </c>
-      <c r="AG6">
+      <c r="BC6">
         <v>-0.25</v>
       </c>
-      <c r="AH6">
+      <c r="BD6">
         <v>-0.13</v>
       </c>
-      <c r="AI6">
+      <c r="BE6">
         <v>0.7</v>
       </c>
-      <c r="AX6">
-        <v>0.1</v>
-      </c>
-      <c r="AY6">
-        <v>24.1</v>
-      </c>
-      <c r="AZ6">
-        <v>8.59</v>
-      </c>
-      <c r="BA6">
-        <v>95.4</v>
-      </c>
-      <c r="BB6">
-        <v>7.68</v>
-      </c>
-      <c r="BC6">
-        <v>1.94</v>
-      </c>
-      <c r="BD6">
-        <v>-0.03</v>
-      </c>
-      <c r="BE6">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>182</v>
       </c>
@@ -2507,55 +2507,55 @@
         <v>22</v>
       </c>
       <c r="AB7">
+        <v>0.1</v>
+      </c>
+      <c r="AC7">
+        <v>23.8</v>
+      </c>
+      <c r="AD7">
+        <v>8.77</v>
+      </c>
+      <c r="AE7">
+        <v>95.3</v>
+      </c>
+      <c r="AF7">
+        <v>7.56</v>
+      </c>
+      <c r="AG7">
+        <v>2.14</v>
+      </c>
+      <c r="AH7">
+        <v>-0.08</v>
+      </c>
+      <c r="AI7">
+        <v>-0.1</v>
+      </c>
+      <c r="AX7">
         <v>21.1</v>
       </c>
-      <c r="AC7">
+      <c r="AY7">
         <v>6.12</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>3.02</v>
       </c>
-      <c r="AE7">
+      <c r="BA7">
         <v>116.6</v>
       </c>
-      <c r="AF7">
+      <c r="BB7">
         <v>6.68</v>
       </c>
-      <c r="AG7">
+      <c r="BC7">
         <v>2.61</v>
       </c>
-      <c r="AH7">
+      <c r="BD7">
         <v>0.37</v>
       </c>
-      <c r="AI7">
+      <c r="BE7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AX7">
-        <v>0.1</v>
-      </c>
-      <c r="AY7">
-        <v>23.8</v>
-      </c>
-      <c r="AZ7">
-        <v>8.77</v>
-      </c>
-      <c r="BA7">
-        <v>95.3</v>
-      </c>
-      <c r="BB7">
-        <v>7.56</v>
-      </c>
-      <c r="BC7">
-        <v>2.14</v>
-      </c>
-      <c r="BD7">
-        <v>-0.08</v>
-      </c>
-      <c r="BE7">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
@@ -2602,55 +2602,55 @@
         <v>11</v>
       </c>
       <c r="AB8">
+        <v>0.1</v>
+      </c>
+      <c r="AC8">
+        <v>23.8</v>
+      </c>
+      <c r="AD8">
+        <v>8.44</v>
+      </c>
+      <c r="AE8">
+        <v>95.3</v>
+      </c>
+      <c r="AF8">
+        <v>7.57</v>
+      </c>
+      <c r="AG8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>-0.11</v>
+      </c>
+      <c r="AI8">
+        <v>-0.12</v>
+      </c>
+      <c r="AX8">
         <v>10</v>
       </c>
-      <c r="AC8">
+      <c r="AY8">
         <v>8.5</v>
       </c>
-      <c r="AD8">
+      <c r="AZ8">
         <v>4.41</v>
       </c>
-      <c r="AE8">
+      <c r="BA8">
         <v>109.1</v>
       </c>
-      <c r="AF8">
+      <c r="BB8">
         <v>6.89</v>
       </c>
-      <c r="AG8">
+      <c r="BC8">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AH8">
+      <c r="BD8">
         <v>-0.17</v>
       </c>
-      <c r="AI8">
+      <c r="BE8">
         <v>-0.03</v>
       </c>
-      <c r="AX8">
-        <v>0.1</v>
-      </c>
-      <c r="AY8">
-        <v>23.8</v>
-      </c>
-      <c r="AZ8">
-        <v>8.44</v>
-      </c>
-      <c r="BA8">
-        <v>95.3</v>
-      </c>
-      <c r="BB8">
-        <v>7.57</v>
-      </c>
-      <c r="BC8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BD8">
-        <v>-0.11</v>
-      </c>
-      <c r="BE8">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>182</v>
       </c>
@@ -2700,55 +2700,55 @@
         <v>2.1</v>
       </c>
       <c r="AB9">
+        <v>0.1</v>
+      </c>
+      <c r="AC9">
+        <v>23.3</v>
+      </c>
+      <c r="AD9">
+        <v>8.14</v>
+      </c>
+      <c r="AE9">
+        <v>95.1</v>
+      </c>
+      <c r="AF9">
+        <v>7.35</v>
+      </c>
+      <c r="AG9">
+        <v>3.11</v>
+      </c>
+      <c r="AH9">
+        <v>-0.08</v>
+      </c>
+      <c r="AI9">
+        <v>0.32</v>
+      </c>
+      <c r="AX9">
         <v>1.5</v>
       </c>
-      <c r="AC9">
+      <c r="AY9">
         <v>23.1</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AE9">
+      <c r="BA9">
         <v>96.3</v>
       </c>
-      <c r="AF9">
+      <c r="BB9">
         <v>7.45</v>
       </c>
-      <c r="AG9">
+      <c r="BC9">
         <v>1.4</v>
       </c>
-      <c r="AH9">
+      <c r="BD9">
         <v>-0.05</v>
       </c>
-      <c r="AI9">
+      <c r="BE9">
         <v>1.04</v>
       </c>
-      <c r="AX9">
-        <v>0.1</v>
-      </c>
-      <c r="AY9">
-        <v>23.3</v>
-      </c>
-      <c r="AZ9">
-        <v>8.14</v>
-      </c>
-      <c r="BA9">
-        <v>95.1</v>
-      </c>
-      <c r="BB9">
-        <v>7.35</v>
-      </c>
-      <c r="BC9">
-        <v>3.11</v>
-      </c>
-      <c r="BD9">
-        <v>-0.08</v>
-      </c>
-      <c r="BE9">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>182</v>
       </c>
@@ -2795,55 +2795,55 @@
         <v>4.3</v>
       </c>
       <c r="AB10">
+        <v>0.1</v>
+      </c>
+      <c r="AC10">
+        <v>24.2</v>
+      </c>
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10">
+        <v>95.9</v>
+      </c>
+      <c r="AF10">
+        <v>7.45</v>
+      </c>
+      <c r="AG10">
+        <v>3.45</v>
+      </c>
+      <c r="AH10">
+        <v>-0.06</v>
+      </c>
+      <c r="AI10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX10">
         <v>3.2</v>
       </c>
-      <c r="AC10">
+      <c r="AY10">
         <v>23.6</v>
       </c>
-      <c r="AD10">
+      <c r="AZ10">
         <v>7.83</v>
       </c>
-      <c r="AE10">
+      <c r="BA10">
         <v>96</v>
       </c>
-      <c r="AF10">
+      <c r="BB10">
         <v>7.36</v>
       </c>
-      <c r="AG10">
+      <c r="BC10">
         <v>4.17</v>
       </c>
-      <c r="AH10">
+      <c r="BD10">
         <v>0.03</v>
       </c>
-      <c r="AI10">
+      <c r="BE10">
         <v>0.1</v>
       </c>
-      <c r="AX10">
-        <v>0.1</v>
-      </c>
-      <c r="AY10">
-        <v>24.2</v>
-      </c>
-      <c r="AZ10">
-        <v>8</v>
-      </c>
-      <c r="BA10">
-        <v>95.9</v>
-      </c>
-      <c r="BB10">
-        <v>7.45</v>
-      </c>
-      <c r="BC10">
-        <v>3.45</v>
-      </c>
-      <c r="BD10">
-        <v>-0.06</v>
-      </c>
-      <c r="BE10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>182</v>
       </c>
@@ -2893,55 +2893,55 @@
         <v>8.5</v>
       </c>
       <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>23.8</v>
+      </c>
+      <c r="AD11">
+        <v>7.86</v>
+      </c>
+      <c r="AE11">
+        <v>95.9</v>
+      </c>
+      <c r="AF11">
+        <v>7.34</v>
+      </c>
+      <c r="AG11">
+        <v>2.81</v>
+      </c>
+      <c r="AH11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AI11">
+        <v>0.02</v>
+      </c>
+      <c r="AX11">
         <v>7.3</v>
       </c>
-      <c r="AC11">
+      <c r="AY11">
         <v>21.6</v>
       </c>
-      <c r="AD11">
+      <c r="AZ11">
         <v>1.9</v>
       </c>
-      <c r="AE11">
+      <c r="BA11">
         <v>99.1</v>
       </c>
-      <c r="AF11">
+      <c r="BB11">
         <v>6.7</v>
       </c>
-      <c r="AG11">
+      <c r="BC11">
         <v>1.83</v>
       </c>
-      <c r="AH11">
+      <c r="BD11">
         <v>-0.09</v>
       </c>
-      <c r="AI11">
+      <c r="BE11">
         <v>0.65</v>
       </c>
-      <c r="AX11">
-        <v>0.1</v>
-      </c>
-      <c r="AY11">
-        <v>23.8</v>
-      </c>
-      <c r="AZ11">
-        <v>7.86</v>
-      </c>
-      <c r="BA11">
-        <v>95.9</v>
-      </c>
-      <c r="BB11">
-        <v>7.34</v>
-      </c>
-      <c r="BC11">
-        <v>2.81</v>
-      </c>
-      <c r="BD11">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="BE11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>182</v>
       </c>
@@ -2988,55 +2988,55 @@
         <v>12.1</v>
       </c>
       <c r="AB12">
+        <v>0.1</v>
+      </c>
+      <c r="AC12">
+        <v>23.8</v>
+      </c>
+      <c r="AD12">
+        <v>7.9</v>
+      </c>
+      <c r="AE12">
+        <v>95.9</v>
+      </c>
+      <c r="AF12">
+        <v>7.32</v>
+      </c>
+      <c r="AG12">
+        <v>3.67</v>
+      </c>
+      <c r="AH12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AI12">
+        <v>0.11</v>
+      </c>
+      <c r="AX12">
         <v>11</v>
       </c>
-      <c r="AC12">
+      <c r="AY12">
         <v>9.4600000000000009</v>
       </c>
-      <c r="AD12">
+      <c r="AZ12">
         <v>2.96</v>
       </c>
-      <c r="AE12">
+      <c r="BA12">
         <v>111</v>
       </c>
-      <c r="AF12">
+      <c r="BB12">
         <v>6.74</v>
       </c>
-      <c r="AG12">
+      <c r="BC12">
         <v>-0.19</v>
       </c>
-      <c r="AH12">
+      <c r="BD12">
         <v>-0.05</v>
       </c>
-      <c r="AI12">
+      <c r="BE12">
         <v>0.46</v>
       </c>
-      <c r="AX12">
-        <v>0.1</v>
-      </c>
-      <c r="AY12">
-        <v>23.8</v>
-      </c>
-      <c r="AZ12">
-        <v>7.9</v>
-      </c>
-      <c r="BA12">
-        <v>95.9</v>
-      </c>
-      <c r="BB12">
-        <v>7.32</v>
-      </c>
-      <c r="BC12">
-        <v>3.67</v>
-      </c>
-      <c r="BD12">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="BE12">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>182</v>
       </c>
@@ -3083,55 +3083,55 @@
         <v>5.4</v>
       </c>
       <c r="AB13">
+        <v>0.1</v>
+      </c>
+      <c r="AC13">
+        <v>23.8</v>
+      </c>
+      <c r="AD13">
+        <v>7.91</v>
+      </c>
+      <c r="AE13">
+        <v>95.5</v>
+      </c>
+      <c r="AF13">
+        <v>7.31</v>
+      </c>
+      <c r="AG13">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AH13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AI13">
+        <v>-0.11</v>
+      </c>
+      <c r="AX13">
         <v>4</v>
       </c>
-      <c r="AC13">
+      <c r="AY13">
         <v>23.5</v>
       </c>
-      <c r="AD13">
+      <c r="AZ13">
         <v>7.58</v>
       </c>
-      <c r="AE13">
+      <c r="BA13">
         <v>95.6</v>
       </c>
-      <c r="AF13">
+      <c r="BB13">
         <v>7.27</v>
       </c>
-      <c r="AG13">
+      <c r="BC13">
         <v>5.93</v>
       </c>
-      <c r="AH13">
+      <c r="BD13">
         <v>-0.06</v>
       </c>
-      <c r="AI13">
+      <c r="BE13">
         <v>0.04</v>
       </c>
-      <c r="AX13">
-        <v>0.1</v>
-      </c>
-      <c r="AY13">
-        <v>23.8</v>
-      </c>
-      <c r="AZ13">
-        <v>7.91</v>
-      </c>
-      <c r="BA13">
-        <v>95.5</v>
-      </c>
-      <c r="BB13">
-        <v>7.31</v>
-      </c>
-      <c r="BC13">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="BD13">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="BE13">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>182</v>
       </c>
@@ -3178,55 +3178,55 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AB14">
+        <v>0.1</v>
+      </c>
+      <c r="AC14">
+        <v>23.9</v>
+      </c>
+      <c r="AD14">
+        <v>8.25</v>
+      </c>
+      <c r="AE14">
+        <v>95.5</v>
+      </c>
+      <c r="AF14">
+        <v>7.51</v>
+      </c>
+      <c r="AG14">
+        <v>2.78</v>
+      </c>
+      <c r="AH14">
+        <v>-0.08</v>
+      </c>
+      <c r="AI14">
+        <v>0.03</v>
+      </c>
+      <c r="AX14">
         <v>16.100000000000001</v>
       </c>
-      <c r="AC14">
+      <c r="AY14">
         <v>6.2</v>
       </c>
-      <c r="AD14">
+      <c r="AZ14">
         <v>4.08</v>
       </c>
-      <c r="AE14">
+      <c r="BA14">
         <v>111.6</v>
       </c>
-      <c r="AF14">
+      <c r="BB14">
         <v>6.76</v>
       </c>
-      <c r="AG14">
+      <c r="BC14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AH14">
+      <c r="BD14">
         <v>0.05</v>
       </c>
-      <c r="AI14">
+      <c r="BE14">
         <v>26.3</v>
       </c>
-      <c r="AX14">
-        <v>0.1</v>
-      </c>
-      <c r="AY14">
-        <v>23.9</v>
-      </c>
-      <c r="AZ14">
-        <v>8.25</v>
-      </c>
-      <c r="BA14">
-        <v>95.5</v>
-      </c>
-      <c r="BB14">
-        <v>7.51</v>
-      </c>
-      <c r="BC14">
-        <v>2.78</v>
-      </c>
-      <c r="BD14">
-        <v>-0.08</v>
-      </c>
-      <c r="BE14">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>182</v>
       </c>
@@ -3273,55 +3273,55 @@
         <v>9.5</v>
       </c>
       <c r="AB15">
+        <v>0.1</v>
+      </c>
+      <c r="AC15">
+        <v>24.1</v>
+      </c>
+      <c r="AD15">
+        <v>8.32</v>
+      </c>
+      <c r="AE15">
+        <v>95.5</v>
+      </c>
+      <c r="AF15">
+        <v>7.49</v>
+      </c>
+      <c r="AG15">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AH15">
+        <v>-0.08</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>6.5</v>
       </c>
-      <c r="AC15">
+      <c r="AY15">
         <v>22.2</v>
       </c>
-      <c r="AD15">
+      <c r="AZ15">
         <v>2.59</v>
       </c>
-      <c r="AE15">
+      <c r="BA15">
         <v>98.4</v>
       </c>
-      <c r="AF15">
+      <c r="BB15">
         <v>6.64</v>
       </c>
-      <c r="AG15">
+      <c r="BC15">
         <v>1.47</v>
       </c>
-      <c r="AH15">
+      <c r="BD15">
         <v>-0.11</v>
       </c>
-      <c r="AI15">
+      <c r="BE15">
         <v>0.85</v>
       </c>
-      <c r="AX15">
-        <v>0.1</v>
-      </c>
-      <c r="AY15">
-        <v>24.1</v>
-      </c>
-      <c r="AZ15">
-        <v>8.32</v>
-      </c>
-      <c r="BA15">
-        <v>95.5</v>
-      </c>
-      <c r="BB15">
-        <v>7.49</v>
-      </c>
-      <c r="BC15">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="BD15">
-        <v>-0.08</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>182</v>
       </c>
@@ -3368,55 +3368,55 @@
         <v>8.4</v>
       </c>
       <c r="AB16">
+        <v>0.1</v>
+      </c>
+      <c r="AC16">
+        <v>24.2</v>
+      </c>
+      <c r="AD16">
+        <v>8.25</v>
+      </c>
+      <c r="AE16">
+        <v>95.5</v>
+      </c>
+      <c r="AF16">
+        <v>7.53</v>
+      </c>
+      <c r="AG16">
+        <v>2.81</v>
+      </c>
+      <c r="AH16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AI16">
+        <v>-0.09</v>
+      </c>
+      <c r="AX16">
         <v>7.1</v>
       </c>
-      <c r="AC16">
+      <c r="AY16">
         <v>22.1</v>
       </c>
-      <c r="AD16">
+      <c r="AZ16">
         <v>2.89</v>
       </c>
-      <c r="AE16">
+      <c r="BA16">
         <v>100.1</v>
       </c>
-      <c r="AF16">
+      <c r="BB16">
         <v>6.73</v>
       </c>
-      <c r="AG16">
+      <c r="BC16">
         <v>2.93</v>
       </c>
-      <c r="AH16">
+      <c r="BD16">
         <v>-0.06</v>
       </c>
-      <c r="AI16">
+      <c r="BE16">
         <v>73.099999999999994</v>
       </c>
-      <c r="AX16">
-        <v>0.1</v>
-      </c>
-      <c r="AY16">
-        <v>24.2</v>
-      </c>
-      <c r="AZ16">
-        <v>8.25</v>
-      </c>
-      <c r="BA16">
-        <v>95.5</v>
-      </c>
-      <c r="BB16">
-        <v>7.53</v>
-      </c>
-      <c r="BC16">
-        <v>2.81</v>
-      </c>
-      <c r="BD16">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="BE16">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>182</v>
       </c>
@@ -3461,55 +3461,55 @@
         <v>24.7</v>
       </c>
       <c r="AB17">
+        <v>0.1</v>
+      </c>
+      <c r="AC17">
+        <v>24.5</v>
+      </c>
+      <c r="AD17">
+        <v>8.58</v>
+      </c>
+      <c r="AE17">
+        <v>95.6</v>
+      </c>
+      <c r="AF17">
+        <v>7.59</v>
+      </c>
+      <c r="AG17">
+        <v>2.88</v>
+      </c>
+      <c r="AH17">
+        <v>-0.09</v>
+      </c>
+      <c r="AI17">
+        <v>-0.16</v>
+      </c>
+      <c r="AX17">
         <v>23</v>
       </c>
-      <c r="AC17">
+      <c r="AY17">
         <v>6.13</v>
       </c>
-      <c r="AD17">
+      <c r="AZ17">
         <v>1.72</v>
       </c>
-      <c r="AE17">
+      <c r="BA17">
         <v>147.19999999999999</v>
       </c>
-      <c r="AF17">
+      <c r="BB17">
         <v>6.89</v>
       </c>
-      <c r="AG17">
+      <c r="BC17">
         <v>4.6100000000000003</v>
       </c>
-      <c r="AH17">
+      <c r="BD17">
         <v>0.62</v>
       </c>
-      <c r="AI17">
+      <c r="BE17">
         <v>8.24</v>
       </c>
-      <c r="AX17">
-        <v>0.1</v>
-      </c>
-      <c r="AY17">
-        <v>24.5</v>
-      </c>
-      <c r="AZ17">
-        <v>8.58</v>
-      </c>
-      <c r="BA17">
-        <v>95.6</v>
-      </c>
-      <c r="BB17">
-        <v>7.59</v>
-      </c>
-      <c r="BC17">
-        <v>2.88</v>
-      </c>
-      <c r="BD17">
-        <v>-0.09</v>
-      </c>
-      <c r="BE17">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
@@ -3537,14 +3537,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4327,17 +4327,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>182</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
@@ -4578,14 +4578,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>163</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>164</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>165</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>166</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>167</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>168</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
@@ -4698,62 +4698,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5224,37 +5168,63 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8B972F2-23C0-4B3C-BC3C-83788FB5C25C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5275,4 +5245,34 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>